--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/185b3f02a5906624/Documents/2022/DASC_2103/DASC_2103_PROJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E71E44F-7C14-48DB-99F2-8727B301C225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{6E71E44F-7C14-48DB-99F2-8727B301C225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{327C9D1A-D64B-4E74-81D6-10C29A8A2F5F}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{0FAA6664-DF0B-45EA-886E-8AEDED486194}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{0FAA6664-DF0B-45EA-886E-8AEDED486194}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Field Name</t>
   </si>
@@ -137,14 +137,52 @@
   </si>
   <si>
     <t xml:space="preserve">When the latest review was posted. </t>
+  </si>
+  <si>
+    <t>Minimum number of nights to rent.</t>
+  </si>
+  <si>
+    <t>The total number of reviews.</t>
+  </si>
+  <si>
+    <t>Total number of reviews divided by number of months.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of listings that the host has. </t>
+  </si>
+  <si>
+    <t>Number of days per year when listing is available for booking.</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Clinton Hill</t>
+  </si>
+  <si>
+    <t>Entire home/apt</t>
+  </si>
+  <si>
+    <t>Chelsea Perfect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -160,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,12 +206,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,27 +564,28 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -525,6 +599,9 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
+      <c r="D2">
+        <v>7322</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -536,6 +613,9 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -547,6 +627,9 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
+      <c r="D4">
+        <v>7192</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -558,6 +641,9 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -569,6 +655,9 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -580,6 +669,9 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -591,6 +683,9 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
+      <c r="D8">
+        <v>40.685139999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -602,6 +697,9 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
+      <c r="D9">
+        <v>-73.940280000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -613,6 +711,9 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -624,6 +725,9 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
+      <c r="D11">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -632,6 +736,12 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -640,6 +750,12 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -651,20 +767,50 @@
       <c r="C14" t="s">
         <v>33</v>
       </c>
+      <c r="D14" s="4">
+        <v>43404</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
